--- a/9-Presentations/GSC 2025/1-Data/WG2_Snow_data.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_Snow_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC335CF-B9F1-4310-90AD-2208C8F5D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDEFD4E-24FD-4876-8083-5880A733B55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,11 +283,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,20 +626,20 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,17 +674,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="4">
@@ -693,1238 +693,1238 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H2" s="6" t="str">
+      <c r="G2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="5" t="str">
         <f>CONCATENATE(B2,"_",D2,"_",F2)</f>
         <v>Georgian_Bay_Snow_Thickness_Feb</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="4">
         <v>45343</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H3" s="6" t="str">
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H38" si="0">CONCATENATE(B3,"_",D3,"_",F3)</f>
         <v>Bay_of_Quinte_Snow_Thickness_Feb</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="4">
         <v>45348</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SCS1_Snow_Thickness_Feb</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="4">
         <v>45349</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H5" s="6" t="str">
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Queen's_Snow_Thickness_Feb</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H6" s="6" t="str">
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Chicago_Snow_Thickness_Feb</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="4">
         <v>45353</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H7" s="6" t="str">
+      <c r="G7" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Keweenaw_Bay_Baraga_Snow_Thickness_Mar</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="4">
         <v>45348</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H8" s="6" t="str">
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CCIW_Snow_Thickness_Feb</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="4">
         <v>45342</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H9" s="6" t="str">
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Washburn_Snow_Thickness_Feb</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="4">
         <v>45349</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H10" s="6" t="str">
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>South_Bass_Island_Snow_Thickness_Feb</v>
       </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="4">
         <v>45350</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H11" s="6" t="str">
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LM_Racine_Snow_Thickness_Feb</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <v>45349</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H12" s="6" t="str">
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LSC_MB_Snow_Thickness_Feb</v>
       </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="4">
         <v>45345</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H13" s="6" t="str">
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Keweenaw_Waterway_Snow_Thickness_Feb</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>0.5</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="4">
         <v>45364</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H14" s="6" t="str">
+      <c r="G14" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GB_32_Snow_Thickness_Mar</v>
       </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="4">
         <v>45350</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H15" s="6" t="str">
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>NW_Pier_Snow_Thickness_Feb</v>
       </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="4">
         <v>45350</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H16" s="6" t="str">
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1629_Suttons_Bay_Snow_Thickness_Feb</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="4">
         <v>45344</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H17" s="6" t="str">
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>EC951_Snow_Thickness_Feb</v>
       </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="4">
         <v>45344</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H18" s="6" t="str">
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>EC933_Snow_Thickness_Feb</v>
       </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="4">
         <v>45345</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H19" s="6" t="str">
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>EC888_Snow_Thickness_Feb</v>
       </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4">
         <v>45342</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H20" s="6" t="str">
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>EC958_Snow_Thickness_Feb</v>
       </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="4">
         <v>45357</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H21" s="6" t="str">
+      <c r="G21" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Whitefish_Bay_Snow_Thickness_Mar</v>
       </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="4">
         <v>45342</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H22" s="6" t="str">
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2024</v>
+      </c>
+      <c r="H22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>St_Martins_Bay_Snow_Thickness_Feb</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>3</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="J22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="4">
         <v>45712</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3">
         <v>2025</v>
       </c>
-      <c r="H23" s="6" t="str">
+      <c r="H23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SCS2_Snow_Thickness_Feb</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>10</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="J23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="4">
         <v>45712</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
         <v>2025</v>
       </c>
-      <c r="H24" s="6" t="str">
+      <c r="H24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SCS1_Snow_Thickness_Feb</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>1.4</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="J24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="4">
         <v>45707</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
         <v>2025</v>
       </c>
-      <c r="H25" s="6" t="str">
+      <c r="H25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GB_32_Snow_Thickness_Feb</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>12.38</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="J25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="4">
         <v>45705</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
         <v>2025</v>
       </c>
-      <c r="H26" s="6" t="str">
+      <c r="H26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Chicago_Snow_Thickness_Feb</v>
       </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="4">
         <v>45700</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="3">
         <v>2025</v>
       </c>
-      <c r="H27" s="6" t="str">
+      <c r="H27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Queen's_Snow_Thickness_Feb</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>5</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="J27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="4">
         <v>45706</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3">
         <v>2025</v>
       </c>
-      <c r="H28" s="6" t="str">
+      <c r="H28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Racine_Snow_Thickness_Feb</v>
       </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="4">
         <v>45699</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3">
         <v>2025</v>
       </c>
-      <c r="H29" s="6" t="str">
+      <c r="H29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Washburn_Snow_Thickness_Feb</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>7.0640000000000001</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="J29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="4">
         <v>45708</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="3">
         <v>2025</v>
       </c>
-      <c r="H30" s="6" t="str">
+      <c r="H30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Bay_of_Quinte_Snow_Thickness_Feb</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>4.3</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="J30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="4">
         <v>45715</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="3">
         <v>2025</v>
       </c>
-      <c r="H31" s="6" t="str">
+      <c r="H31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Georgian_Bay_Snow_Thickness_Feb</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>25.4</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="J31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3">
         <v>2025</v>
       </c>
-      <c r="H32" s="6" t="str">
+      <c r="H32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Keweenaw_Waterway_Snow_Thickness_Feb</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>3.08</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="J32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="4">
         <v>45709</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="3">
         <v>2025</v>
       </c>
-      <c r="H33" s="6" t="str">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Keweenaw_Bay_Baraga_Snow_Thickness_Feb</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>5.5</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="J33" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3">
         <v>2025</v>
       </c>
-      <c r="H34" s="6" t="str">
+      <c r="H34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Lorain_Snow_Thickness_Feb</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="J34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3">
         <v>2025</v>
       </c>
-      <c r="H35" s="6" t="str">
+      <c r="H35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1629_Suttons_Bay_Snow_Thickness_Feb</v>
       </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="3">
         <v>2025</v>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>NW_Pier_Snow_Thickness_Feb</v>
       </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="3">
         <v>2025</v>
       </c>
-      <c r="H37" s="6" t="str">
+      <c r="H37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LSC_MB_Snow_Thickness_Feb</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>2.54</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="J37" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="3">
         <v>2024</v>
       </c>
-      <c r="H38" s="6" t="str">
+      <c r="H38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>B-Pier_Snow_Thickness_Feb</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>56</v>
       </c>
     </row>

--- a/9-Presentations/GSC 2025/1-Data/WG2_Snow_data.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_Snow_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A958275-2B6D-4CD2-AB68-6CC74E18B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7D1FEF-F0E2-4221-9467-534DD1C0EAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
-    <t>pi_name</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Ice_m</t>
+  </si>
+  <si>
+    <t>PI_name</t>
+  </si>
+  <si>
+    <t>Station</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC02E07-F875-4C94-A36D-C7F9F6B2F4BD}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,42 +629,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>45344</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6">
         <v>2024</v>
@@ -679,16 +679,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>45343</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
         <v>2024</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>45348</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>2024</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>45349</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>2024</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>2024</v>
@@ -775,16 +775,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <v>45353</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6">
         <v>2024</v>
@@ -799,16 +799,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>45348</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
         <v>2024</v>
@@ -823,16 +823,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>45342</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <v>2024</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <v>45349</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>2024</v>
@@ -871,16 +871,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <v>45350</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <v>2024</v>
@@ -895,16 +895,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <v>45349</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <v>2024</v>
@@ -919,16 +919,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <v>45345</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
         <v>2024</v>
@@ -943,16 +943,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4">
         <v>45364</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6">
         <v>2024</v>
@@ -967,16 +967,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4">
         <v>45350</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
         <v>2024</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="4">
         <v>45350</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
         <v>2024</v>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>45344</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
         <v>2024</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>45344</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
         <v>2024</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4">
         <v>45345</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6">
         <v>2024</v>
@@ -1087,16 +1087,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <v>45342</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
         <v>2024</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
         <v>45357</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="6">
         <v>2024</v>
@@ -1135,16 +1135,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C22" s="4">
         <v>45342</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
         <v>2024</v>
@@ -1159,16 +1159,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>45712</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
         <v>2025</v>
@@ -1183,16 +1183,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4">
         <v>45712</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>2025</v>
@@ -1207,16 +1207,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
         <v>45707</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>2025</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>45705</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>2025</v>
@@ -1255,16 +1255,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
         <v>45700</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>2025</v>
@@ -1279,16 +1279,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4">
         <v>45706</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
         <v>2025</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4">
         <v>45699</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>2025</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4">
         <v>45708</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3">
         <v>2025</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4">
         <v>45715</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3">
         <v>2025</v>
@@ -1375,16 +1375,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>2025</v>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4">
         <v>45709</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" s="3">
         <v>2025</v>
@@ -1422,16 +1422,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
         <v>2025</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>2025</v>
@@ -1470,16 +1470,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" s="3">
         <v>2025</v>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" s="3">
         <v>2025</v>
